--- a/medicine/Mort/Cimetière_de_Capbreton/Cimetière_de_Capbreton.xlsx
+++ b/medicine/Mort/Cimetière_de_Capbreton/Cimetière_de_Capbreton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Capbreton</t>
+          <t>Cimetière_de_Capbreton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Capbreton, ou cimetière ancien, est un cimetière communal situé en Nouvelle-Aquitaine à Capbreton dans le département des Landes. L'autre cimetière de la commune est le cimetière des Pins, ou cimetière nouveau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Capbreton, ou cimetière ancien, est un cimetière communal situé en Nouvelle-Aquitaine à Capbreton dans le département des Landes. L'autre cimetière de la commune est le cimetière des Pins, ou cimetière nouveau.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Capbreton</t>
+          <t>Cimetière_de_Capbreton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière sur un terrain sablonneux et non arboré est partagé en une partie ancienne et une partie nouvelle, cette dernière n'offrant pas de caractère esthétique car les tombes y sont uniformisées. Il existe quelques chapelles familiales (famille Valentin, famille Cazenave-Darrigade-Hourcade, famille Cannellas-Tatry, famille de Jean-Baptiste Laborde, famille Lesca, Dasse, Rechou-Costabadie, etc.) dans la partie ancienne, mais la plupart des tombes sont bien modestes. Quelques personnalités locales y reposent. Il existe un carré militaire (avec quatre tombes musulmanes). On remarque des sépultures avec des stèles basques discoïdales, et une tombe avec une croix de Lorraine de réfugiés lorrains sous l'Occupation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière sur un terrain sablonneux et non arboré est partagé en une partie ancienne et une partie nouvelle, cette dernière n'offrant pas de caractère esthétique car les tombes y sont uniformisées. Il existe quelques chapelles familiales (famille Valentin, famille Cazenave-Darrigade-Hourcade, famille Cannellas-Tatry, famille de Jean-Baptiste Laborde, famille Lesca, Dasse, Rechou-Costabadie, etc.) dans la partie ancienne, mais la plupart des tombes sont bien modestes. Quelques personnalités locales y reposent. Il existe un carré militaire (avec quatre tombes musulmanes). On remarque des sépultures avec des stèles basques discoïdales, et une tombe avec une croix de Lorraine de réfugiés lorrains sous l'Occupation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Capbreton</t>
+          <t>Cimetière_de_Capbreton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément d'Astanières (1841-1918), sculpteur élève de Falguière; sa tombe est surmontée de sa Vierge Omnipotentia Supplex
-David Chabas (1891-1996), peintre, journaliste et éditeur local[3]
+David Chabas (1891-1996), peintre, journaliste et éditeur local
 Gaston Gélibert (1850-1931), peintre animalier
 Mathias Morhardt (1863-1939), poète, dramaturge et critique d'art d'origine suisse
 			Tombeau de Clément d'Astanières.
